--- a/inst/extdata/HILIC_neg_sample.xlsx
+++ b/inst/extdata/HILIC_neg_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\amp\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FB0E3B-B814-4261-BE4A-B8AA30E85D3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB21A455-EB90-4EC3-A3A4-688235467375}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="3060" windowWidth="20244" windowHeight="16464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1164" yWindow="4272" windowWidth="20244" windowHeight="15984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HILIC neg final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="293">
   <si>
     <t>Class</t>
   </si>
@@ -40,9 +40,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>HE-HA</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -758,12 +755,6 @@
   </si>
   <si>
     <t>180305SR_Saliva_HILIC_neg_231</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_232</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_233</t>
   </si>
   <si>
     <t>180305SR_Saliva_HILIC_neg_234</t>
@@ -1749,15 +1740,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IJ1123"/>
+  <dimension ref="A1:IH1123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" topLeftCell="HQ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="IE1" sqref="IE1:IF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:242" x14ac:dyDescent="0.3">
       <c r="U1" t="s">
         <v>0</v>
       </c>
@@ -2413,10 +2404,10 @@
         <v>5</v>
       </c>
       <c r="IE1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="IF1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="IG1" t="s">
         <v>1</v>
@@ -2424,14 +2415,8 @@
       <c r="IH1" t="s">
         <v>1</v>
       </c>
-      <c r="II1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IJ1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:242" x14ac:dyDescent="0.3">
       <c r="U2" t="s">
         <v>1</v>
       </c>
@@ -2439,658 +2424,658 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI2" t="s">
         <v>1</v>
       </c>
       <c r="AJ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV2" t="s">
         <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI2" t="s">
         <v>1</v>
       </c>
       <c r="BJ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BL2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BM2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BN2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BO2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BP2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BQ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BR2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BS2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BT2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BU2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BV2" t="s">
         <v>1</v>
       </c>
       <c r="BW2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BX2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BY2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BZ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CA2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CB2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CC2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CD2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CE2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CF2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CG2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CH2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CI2" t="s">
         <v>1</v>
       </c>
       <c r="CJ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CK2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CL2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CM2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CN2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CO2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CP2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CQ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CR2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CS2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CT2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CU2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CV2" t="s">
         <v>1</v>
       </c>
       <c r="CW2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CX2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CY2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CZ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DA2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DB2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DC2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DD2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DE2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DF2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DG2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DH2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DI2" t="s">
         <v>1</v>
       </c>
       <c r="DJ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DK2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DL2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DM2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DN2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DO2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DP2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DQ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DR2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DS2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DT2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DU2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DV2" t="s">
         <v>1</v>
       </c>
       <c r="DW2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DX2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DY2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DZ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EA2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EB2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EC2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="ED2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EE2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EF2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EG2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EH2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EI2" t="s">
         <v>1</v>
       </c>
       <c r="EJ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EK2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EL2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EM2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EN2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EO2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EP2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EQ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="ER2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="ES2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="ET2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EU2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EV2" t="s">
         <v>1</v>
       </c>
       <c r="EW2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EX2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EY2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EZ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FA2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FB2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FC2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FD2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FE2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FF2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FG2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FH2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FI2" t="s">
         <v>1</v>
       </c>
       <c r="FJ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FK2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FL2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FM2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FN2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FO2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FP2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FQ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FR2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FS2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FT2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FU2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FV2" t="s">
         <v>1</v>
       </c>
       <c r="FW2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FX2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FY2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FZ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GA2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GB2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GC2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GD2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GE2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GF2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GG2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GH2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GI2" t="s">
         <v>1</v>
       </c>
       <c r="GJ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GK2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GL2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GM2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GN2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GO2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GP2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GQ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GR2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GS2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GT2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GU2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GV2" t="s">
         <v>1</v>
       </c>
       <c r="GW2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GX2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GY2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GZ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HA2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HB2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HC2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HD2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HE2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HF2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HG2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HH2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HI2" t="s">
         <v>1</v>
       </c>
       <c r="HJ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HK2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HL2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HM2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HN2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HO2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HP2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HQ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HR2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HS2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HT2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HU2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HV2" t="s">
         <v>1</v>
       </c>
       <c r="HW2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HX2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HY2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HZ2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="IA2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="IB2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="IC2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="ID2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="IE2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="IF2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="IG2" t="s">
         <v>1</v>
@@ -3098,16 +3083,10 @@
       <c r="IH2" t="s">
         <v>1</v>
       </c>
-      <c r="II2" t="s">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:242" x14ac:dyDescent="0.3">
       <c r="U3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -3761,759 +3740,747 @@
         <v>217</v>
       </c>
       <c r="IE3">
+        <v>220</v>
+      </c>
+      <c r="IF3">
+        <v>221</v>
+      </c>
+      <c r="IG3">
+        <v>222</v>
+      </c>
+      <c r="IH3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:242" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>90</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>93</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>94</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>96</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>100</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>101</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>104</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>107</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>110</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>111</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>112</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>113</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>114</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>115</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>116</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>117</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>119</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>121</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>123</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>124</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>125</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>126</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>127</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>129</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>130</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>131</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>132</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>133</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>134</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>135</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>136</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>137</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>138</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>139</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>140</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>141</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>142</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>143</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>144</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>145</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>146</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>148</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>150</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>151</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>152</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>153</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>154</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>155</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>156</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>157</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>158</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>159</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>160</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>161</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>162</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>163</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>164</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>165</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>166</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>167</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>168</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>169</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>170</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>171</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>172</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>173</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>174</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>175</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>176</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>177</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>178</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>179</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>180</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>181</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>182</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>183</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>185</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>186</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>187</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>188</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>189</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>190</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>191</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>192</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>193</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>194</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>195</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>196</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>197</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>198</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>199</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>200</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>201</v>
+      </c>
+      <c r="GN4" t="s">
+        <v>202</v>
+      </c>
+      <c r="GO4" t="s">
+        <v>203</v>
+      </c>
+      <c r="GP4" t="s">
+        <v>204</v>
+      </c>
+      <c r="GQ4" t="s">
+        <v>205</v>
+      </c>
+      <c r="GR4" t="s">
+        <v>206</v>
+      </c>
+      <c r="GS4" t="s">
+        <v>207</v>
+      </c>
+      <c r="GT4" t="s">
+        <v>208</v>
+      </c>
+      <c r="GU4" t="s">
+        <v>209</v>
+      </c>
+      <c r="GV4" t="s">
+        <v>210</v>
+      </c>
+      <c r="GW4" t="s">
+        <v>211</v>
+      </c>
+      <c r="GX4" t="s">
+        <v>212</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>213</v>
+      </c>
+      <c r="GZ4" t="s">
+        <v>214</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>215</v>
+      </c>
+      <c r="HB4" t="s">
+        <v>216</v>
+      </c>
+      <c r="HC4" t="s">
+        <v>217</v>
+      </c>
+      <c r="HD4" t="s">
         <v>218</v>
       </c>
-      <c r="IF3">
+      <c r="HE4" t="s">
         <v>219</v>
       </c>
-      <c r="IG3">
+      <c r="HF4" t="s">
         <v>220</v>
       </c>
-      <c r="IH3">
+      <c r="HG4" t="s">
         <v>221</v>
       </c>
-      <c r="II3">
+      <c r="HH4" t="s">
         <v>222</v>
       </c>
-      <c r="IJ3">
+      <c r="HI4" t="s">
         <v>223</v>
       </c>
+      <c r="HJ4" t="s">
+        <v>224</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>225</v>
+      </c>
+      <c r="HL4" t="s">
+        <v>226</v>
+      </c>
+      <c r="HM4" t="s">
+        <v>227</v>
+      </c>
+      <c r="HN4" t="s">
+        <v>228</v>
+      </c>
+      <c r="HO4" t="s">
+        <v>229</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>230</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>231</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>232</v>
+      </c>
+      <c r="HS4" t="s">
+        <v>233</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>234</v>
+      </c>
+      <c r="HU4" t="s">
+        <v>235</v>
+      </c>
+      <c r="HV4" t="s">
+        <v>236</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>237</v>
+      </c>
+      <c r="HX4" t="s">
+        <v>238</v>
+      </c>
+      <c r="HY4" t="s">
+        <v>239</v>
+      </c>
+      <c r="HZ4" t="s">
+        <v>240</v>
+      </c>
+      <c r="IA4" t="s">
+        <v>241</v>
+      </c>
+      <c r="IB4" t="s">
+        <v>242</v>
+      </c>
+      <c r="IC4" t="s">
+        <v>243</v>
+      </c>
+      <c r="ID4" t="s">
+        <v>244</v>
+      </c>
+      <c r="IE4" t="s">
+        <v>245</v>
+      </c>
+      <c r="IF4" t="s">
+        <v>246</v>
+      </c>
+      <c r="IG4" t="s">
+        <v>247</v>
+      </c>
+      <c r="IH4" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="4" spans="1:244" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>72</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>87</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>89</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>90</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>91</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>93</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>94</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>95</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>96</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>99</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>106</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>107</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>110</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>111</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>112</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>113</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>114</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>115</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>116</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>117</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>118</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>119</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>120</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>121</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>122</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>123</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>124</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>125</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>126</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>127</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>128</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>129</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>130</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>131</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>132</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>133</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>134</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>135</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>136</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>137</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>138</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>139</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>140</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>141</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>144</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>145</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>148</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>149</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>150</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>151</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>152</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>153</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>154</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>155</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>156</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>157</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>158</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>159</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>160</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>161</v>
-      </c>
-      <c r="EY4" t="s">
-        <v>162</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>163</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>164</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>165</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>166</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>167</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>168</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>169</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>171</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>172</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>173</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>174</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>175</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>176</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>177</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>178</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>179</v>
-      </c>
-      <c r="FQ4" t="s">
-        <v>180</v>
-      </c>
-      <c r="FR4" t="s">
-        <v>181</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>182</v>
-      </c>
-      <c r="FT4" t="s">
-        <v>183</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>184</v>
-      </c>
-      <c r="FV4" t="s">
-        <v>185</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>186</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>187</v>
-      </c>
-      <c r="FY4" t="s">
-        <v>188</v>
-      </c>
-      <c r="FZ4" t="s">
-        <v>189</v>
-      </c>
-      <c r="GA4" t="s">
-        <v>190</v>
-      </c>
-      <c r="GB4" t="s">
-        <v>191</v>
-      </c>
-      <c r="GC4" t="s">
-        <v>192</v>
-      </c>
-      <c r="GD4" t="s">
-        <v>193</v>
-      </c>
-      <c r="GE4" t="s">
-        <v>194</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>195</v>
-      </c>
-      <c r="GG4" t="s">
-        <v>196</v>
-      </c>
-      <c r="GH4" t="s">
-        <v>197</v>
-      </c>
-      <c r="GI4" t="s">
-        <v>198</v>
-      </c>
-      <c r="GJ4" t="s">
-        <v>199</v>
-      </c>
-      <c r="GK4" t="s">
-        <v>200</v>
-      </c>
-      <c r="GL4" t="s">
-        <v>201</v>
-      </c>
-      <c r="GM4" t="s">
-        <v>202</v>
-      </c>
-      <c r="GN4" t="s">
-        <v>203</v>
-      </c>
-      <c r="GO4" t="s">
-        <v>204</v>
-      </c>
-      <c r="GP4" t="s">
-        <v>205</v>
-      </c>
-      <c r="GQ4" t="s">
-        <v>206</v>
-      </c>
-      <c r="GR4" t="s">
-        <v>207</v>
-      </c>
-      <c r="GS4" t="s">
-        <v>208</v>
-      </c>
-      <c r="GT4" t="s">
-        <v>209</v>
-      </c>
-      <c r="GU4" t="s">
-        <v>210</v>
-      </c>
-      <c r="GV4" t="s">
-        <v>211</v>
-      </c>
-      <c r="GW4" t="s">
-        <v>212</v>
-      </c>
-      <c r="GX4" t="s">
-        <v>213</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>214</v>
-      </c>
-      <c r="GZ4" t="s">
-        <v>215</v>
-      </c>
-      <c r="HA4" t="s">
-        <v>216</v>
-      </c>
-      <c r="HB4" t="s">
-        <v>217</v>
-      </c>
-      <c r="HC4" t="s">
-        <v>218</v>
-      </c>
-      <c r="HD4" t="s">
-        <v>219</v>
-      </c>
-      <c r="HE4" t="s">
-        <v>220</v>
-      </c>
-      <c r="HF4" t="s">
-        <v>221</v>
-      </c>
-      <c r="HG4" t="s">
-        <v>222</v>
-      </c>
-      <c r="HH4" t="s">
-        <v>223</v>
-      </c>
-      <c r="HI4" t="s">
-        <v>224</v>
-      </c>
-      <c r="HJ4" t="s">
-        <v>225</v>
-      </c>
-      <c r="HK4" t="s">
-        <v>226</v>
-      </c>
-      <c r="HL4" t="s">
-        <v>227</v>
-      </c>
-      <c r="HM4" t="s">
-        <v>228</v>
-      </c>
-      <c r="HN4" t="s">
-        <v>229</v>
-      </c>
-      <c r="HO4" t="s">
-        <v>230</v>
-      </c>
-      <c r="HP4" t="s">
-        <v>231</v>
-      </c>
-      <c r="HQ4" t="s">
-        <v>232</v>
-      </c>
-      <c r="HR4" t="s">
-        <v>233</v>
-      </c>
-      <c r="HS4" t="s">
-        <v>234</v>
-      </c>
-      <c r="HT4" t="s">
-        <v>235</v>
-      </c>
-      <c r="HU4" t="s">
-        <v>236</v>
-      </c>
-      <c r="HV4" t="s">
-        <v>237</v>
-      </c>
-      <c r="HW4" t="s">
-        <v>238</v>
-      </c>
-      <c r="HX4" t="s">
-        <v>239</v>
-      </c>
-      <c r="HY4" t="s">
-        <v>240</v>
-      </c>
-      <c r="HZ4" t="s">
-        <v>241</v>
-      </c>
-      <c r="IA4" t="s">
-        <v>242</v>
-      </c>
-      <c r="IB4" t="s">
-        <v>243</v>
-      </c>
-      <c r="IC4" t="s">
-        <v>244</v>
-      </c>
-      <c r="ID4" t="s">
-        <v>245</v>
-      </c>
-      <c r="IE4" t="s">
-        <v>246</v>
-      </c>
-      <c r="IF4" t="s">
-        <v>247</v>
-      </c>
-      <c r="IG4" t="s">
-        <v>248</v>
-      </c>
-      <c r="IH4" t="s">
-        <v>249</v>
-      </c>
-      <c r="II4" t="s">
-        <v>250</v>
-      </c>
-      <c r="IJ4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4524,10 +4491,10 @@
         <v>57.9758</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G5">
         <v>0.61883410000000005</v>
@@ -4536,16 +4503,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -4563,10 +4530,10 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="V5">
         <v>440357.7</v>
@@ -5220,25 +5187,19 @@
         <v>60150.81</v>
       </c>
       <c r="IE5">
-        <v>83220.7</v>
+        <v>113132.9</v>
       </c>
       <c r="IF5">
-        <v>11948.95</v>
+        <v>11288.18</v>
       </c>
       <c r="IG5">
-        <v>113132.9</v>
+        <v>16589.07</v>
       </c>
       <c r="IH5">
-        <v>11288.18</v>
-      </c>
-      <c r="II5">
-        <v>16589.07</v>
-      </c>
-      <c r="IJ5">
         <v>30779.02</v>
       </c>
     </row>
-    <row r="6" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5249,10 +5210,10 @@
         <v>61.989400000000003</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G6">
         <v>0.41704029999999997</v>
@@ -5261,13 +5222,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -5285,10 +5246,10 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="V6">
         <v>259414.2</v>
@@ -5942,25 +5903,19 @@
         <v>81960.84</v>
       </c>
       <c r="IE6">
-        <v>50158.2</v>
+        <v>73440.070000000007</v>
       </c>
       <c r="IF6">
-        <v>67931.89</v>
+        <v>0</v>
       </c>
       <c r="IG6">
-        <v>73440.070000000007</v>
+        <v>0</v>
       </c>
       <c r="IH6">
         <v>0</v>
       </c>
-      <c r="II6">
-        <v>0</v>
-      </c>
-      <c r="IJ6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -5971,10 +5926,10 @@
         <v>61.990600000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G7">
         <v>0.93273539999999999</v>
@@ -5983,16 +5938,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -6010,10 +5965,10 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="V7">
         <v>720545.3</v>
@@ -6667,25 +6622,19 @@
         <v>116123.9</v>
       </c>
       <c r="IE7">
-        <v>142994</v>
+        <v>125456.8</v>
       </c>
       <c r="IF7">
-        <v>119711.4</v>
+        <v>0</v>
       </c>
       <c r="IG7">
-        <v>125456.8</v>
+        <v>0</v>
       </c>
       <c r="IH7">
         <v>0</v>
       </c>
-      <c r="II7">
-        <v>0</v>
-      </c>
-      <c r="IJ7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6696,10 +6645,10 @@
         <v>68.995599999999996</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G8">
         <v>0.31390129999999999</v>
@@ -6708,16 +6657,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -6735,10 +6684,10 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="V8">
         <v>445562.4</v>
@@ -7392,25 +7341,19 @@
         <v>96382.33</v>
       </c>
       <c r="IE8">
-        <v>106725.8</v>
+        <v>51989.77</v>
       </c>
       <c r="IF8">
-        <v>93429.45</v>
+        <v>36643.800000000003</v>
       </c>
       <c r="IG8">
-        <v>51989.77</v>
+        <v>112658.9</v>
       </c>
       <c r="IH8">
-        <v>36643.800000000003</v>
-      </c>
-      <c r="II8">
-        <v>112658.9</v>
-      </c>
-      <c r="IJ8">
         <v>58886.75</v>
       </c>
     </row>
-    <row r="9" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -7421,10 +7364,10 @@
         <v>73.030600000000007</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G9">
         <v>0.79372200000000004</v>
@@ -7433,16 +7376,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -7460,10 +7403,10 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="V9">
         <v>67617.22</v>
@@ -8117,25 +8060,19 @@
         <v>5858.482</v>
       </c>
       <c r="IE9">
-        <v>10277.459999999999</v>
+        <v>10865.78</v>
       </c>
       <c r="IF9">
-        <v>6670.8410000000003</v>
+        <v>52852.88</v>
       </c>
       <c r="IG9">
-        <v>10865.78</v>
+        <v>14293.27</v>
       </c>
       <c r="IH9">
-        <v>52852.88</v>
-      </c>
-      <c r="II9">
-        <v>14293.27</v>
-      </c>
-      <c r="IJ9">
         <v>28673.55</v>
       </c>
     </row>
-    <row r="10" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -8146,13 +8083,13 @@
         <v>73.031499999999994</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G10">
         <v>0.41255609999999998</v>
@@ -8161,16 +8098,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -8188,10 +8125,10 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V10">
         <v>94534.7</v>
@@ -8845,25 +8782,19 @@
         <v>5566.1769999999997</v>
       </c>
       <c r="IE10">
-        <v>11293.7</v>
+        <v>8102.7290000000003</v>
       </c>
       <c r="IF10">
-        <v>7854.43</v>
+        <v>38948.879999999997</v>
       </c>
       <c r="IG10">
-        <v>8102.7290000000003</v>
+        <v>93556.73</v>
       </c>
       <c r="IH10">
-        <v>38948.879999999997</v>
-      </c>
-      <c r="II10">
-        <v>93556.73</v>
-      </c>
-      <c r="IJ10">
         <v>25746.02</v>
       </c>
     </row>
-    <row r="11" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8874,10 +8805,10 @@
         <v>73.971900000000005</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G11">
         <v>0.32286999999999999</v>
@@ -8886,16 +8817,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -8913,10 +8844,10 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V11">
         <v>39081.03</v>
@@ -9570,25 +9501,19 @@
         <v>5066.3890000000001</v>
       </c>
       <c r="IE11">
-        <v>4251.5429999999997</v>
+        <v>4520.5389999999998</v>
       </c>
       <c r="IF11">
-        <v>7166.9560000000001</v>
+        <v>37276.269999999997</v>
       </c>
       <c r="IG11">
-        <v>4520.5389999999998</v>
+        <v>15494.07</v>
       </c>
       <c r="IH11">
-        <v>37276.269999999997</v>
-      </c>
-      <c r="II11">
-        <v>15494.07</v>
-      </c>
-      <c r="IJ11">
         <v>5822.701</v>
       </c>
     </row>
-    <row r="12" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -9599,10 +9524,10 @@
         <v>75.009100000000004</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G12">
         <v>0.39910309999999999</v>
@@ -9611,13 +9536,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -9635,10 +9560,10 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="V12">
         <v>1470609</v>
@@ -10292,25 +10217,19 @@
         <v>236147.1</v>
       </c>
       <c r="IE12">
-        <v>343963.7</v>
+        <v>266865.09999999998</v>
       </c>
       <c r="IF12">
-        <v>312356.59999999998</v>
+        <v>193819.7</v>
       </c>
       <c r="IG12">
-        <v>266865.09999999998</v>
+        <v>206777.4</v>
       </c>
       <c r="IH12">
-        <v>193819.7</v>
-      </c>
-      <c r="II12">
-        <v>206777.4</v>
-      </c>
-      <c r="IJ12">
         <v>236762.1</v>
       </c>
     </row>
-    <row r="13" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -10321,13 +10240,13 @@
         <v>78.9208</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G13">
         <v>0.79820630000000004</v>
@@ -10336,16 +10255,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -10363,10 +10282,10 @@
         <v>-1</v>
       </c>
       <c r="S13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="V13">
         <v>10355.25</v>
@@ -11020,25 +10939,19 @@
         <v>3592.748</v>
       </c>
       <c r="IE13">
-        <v>2959.7750000000001</v>
+        <v>1268.384</v>
       </c>
       <c r="IF13">
-        <v>2057.5590000000002</v>
+        <v>7422.79</v>
       </c>
       <c r="IG13">
-        <v>1268.384</v>
+        <v>0</v>
       </c>
       <c r="IH13">
-        <v>7422.79</v>
-      </c>
-      <c r="II13">
-        <v>0</v>
-      </c>
-      <c r="IJ13">
         <v>135.44</v>
       </c>
     </row>
-    <row r="14" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -11049,13 +10962,13 @@
         <v>78.960400000000007</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G14">
         <v>0.96860990000000002</v>
@@ -11064,16 +10977,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -11091,10 +11004,10 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="V14">
         <v>1177903</v>
@@ -11748,25 +11661,19 @@
         <v>144869.6</v>
       </c>
       <c r="IE14">
-        <v>290167.59999999998</v>
+        <v>243656.3</v>
       </c>
       <c r="IF14">
-        <v>116550.3</v>
+        <v>31209.05</v>
       </c>
       <c r="IG14">
-        <v>243656.3</v>
+        <v>25673.99</v>
       </c>
       <c r="IH14">
-        <v>31209.05</v>
-      </c>
-      <c r="II14">
-        <v>25673.99</v>
-      </c>
-      <c r="IJ14">
         <v>68640.45</v>
       </c>
     </row>
-    <row r="15" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -11777,13 +11684,13 @@
         <v>80.918899999999994</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G15">
         <v>0.88340810000000003</v>
@@ -11792,16 +11699,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -11819,10 +11726,10 @@
         <v>-1</v>
       </c>
       <c r="S15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="V15">
         <v>12073.77</v>
@@ -12476,25 +12383,19 @@
         <v>7472.2219999999998</v>
       </c>
       <c r="IE15">
-        <v>17987.650000000001</v>
+        <v>19212.990000000002</v>
       </c>
       <c r="IF15">
-        <v>12877.1</v>
+        <v>215791.3</v>
       </c>
       <c r="IG15">
-        <v>19212.990000000002</v>
+        <v>121820.6</v>
       </c>
       <c r="IH15">
-        <v>215791.3</v>
-      </c>
-      <c r="II15">
-        <v>121820.6</v>
-      </c>
-      <c r="IJ15">
         <v>209552.2</v>
       </c>
     </row>
-    <row r="16" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -12505,13 +12406,13 @@
         <v>84.010400000000004</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G16">
         <v>0.36322870000000002</v>
@@ -12520,16 +12421,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -12547,10 +12448,10 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="V16">
         <v>113964.9</v>
@@ -13204,25 +13105,19 @@
         <v>1457.3019999999999</v>
       </c>
       <c r="IE16">
-        <v>65843.16</v>
+        <v>6790.9110000000001</v>
       </c>
       <c r="IF16">
-        <v>8285.86</v>
+        <v>71715.48</v>
       </c>
       <c r="IG16">
-        <v>6790.9110000000001</v>
+        <v>32326.560000000001</v>
       </c>
       <c r="IH16">
-        <v>71715.48</v>
-      </c>
-      <c r="II16">
-        <v>32326.560000000001</v>
-      </c>
-      <c r="IJ16">
         <v>33535.51</v>
       </c>
     </row>
-    <row r="17" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -13233,10 +13128,10 @@
         <v>87.009900000000002</v>
       </c>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G17">
         <v>0.52017939999999996</v>
@@ -13245,16 +13140,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -13272,10 +13167,10 @@
         <v>-1</v>
       </c>
       <c r="S17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="V17">
         <v>205290.1</v>
@@ -13929,25 +13824,19 @@
         <v>9873.5769999999993</v>
       </c>
       <c r="IE17">
-        <v>14584.09</v>
+        <v>21155.759999999998</v>
       </c>
       <c r="IF17">
-        <v>21951.23</v>
+        <v>23960.98</v>
       </c>
       <c r="IG17">
-        <v>21155.759999999998</v>
+        <v>29480.9</v>
       </c>
       <c r="IH17">
-        <v>23960.98</v>
-      </c>
-      <c r="II17">
-        <v>29480.9</v>
-      </c>
-      <c r="IJ17">
         <v>33492.44</v>
       </c>
     </row>
-    <row r="18" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -13958,10 +13847,10 @@
         <v>87.011399999999995</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G18">
         <v>0.98206280000000001</v>
@@ -13970,16 +13859,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -13997,10 +13886,10 @@
         <v>-1</v>
       </c>
       <c r="S18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="V18">
         <v>293070.09999999998</v>
@@ -14654,25 +14543,19 @@
         <v>3272.9850000000001</v>
       </c>
       <c r="IE18">
-        <v>48033.27</v>
+        <v>9970.2459999999992</v>
       </c>
       <c r="IF18">
-        <v>2918.1840000000002</v>
+        <v>26137.56</v>
       </c>
       <c r="IG18">
-        <v>9970.2459999999992</v>
+        <v>36698.82</v>
       </c>
       <c r="IH18">
-        <v>26137.56</v>
-      </c>
-      <c r="II18">
-        <v>36698.82</v>
-      </c>
-      <c r="IJ18">
         <v>40191.54</v>
       </c>
     </row>
-    <row r="19" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -14683,13 +14566,13 @@
         <v>88.041499999999999</v>
       </c>
       <c r="D19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G19">
         <v>0.59641250000000001</v>
@@ -14698,13 +14581,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -14722,10 +14605,10 @@
         <v>-1</v>
       </c>
       <c r="S19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="V19">
         <v>280665.90000000002</v>
@@ -15379,25 +15262,19 @@
         <v>6476.5820000000003</v>
       </c>
       <c r="IE19">
-        <v>87327.45</v>
+        <v>35482.82</v>
       </c>
       <c r="IF19">
-        <v>9033.9609999999993</v>
+        <v>25005.43</v>
       </c>
       <c r="IG19">
-        <v>35482.82</v>
+        <v>63510.73</v>
       </c>
       <c r="IH19">
-        <v>25005.43</v>
-      </c>
-      <c r="II19">
-        <v>63510.73</v>
-      </c>
-      <c r="IJ19">
         <v>81179.23</v>
       </c>
     </row>
-    <row r="20" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -15408,10 +15285,10 @@
         <v>89.024299999999997</v>
       </c>
       <c r="D20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G20">
         <v>0.98206280000000001</v>
@@ -15420,16 +15297,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -15447,10 +15324,10 @@
         <v>-1</v>
       </c>
       <c r="S20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="V20">
         <v>49107.09</v>
@@ -16104,25 +15981,19 @@
         <v>7335.8130000000001</v>
       </c>
       <c r="IE20">
-        <v>3005.8980000000001</v>
+        <v>4376.585</v>
       </c>
       <c r="IF20">
-        <v>1754.104</v>
+        <v>49792.51</v>
       </c>
       <c r="IG20">
-        <v>4376.585</v>
+        <v>39604.89</v>
       </c>
       <c r="IH20">
-        <v>49792.51</v>
-      </c>
-      <c r="II20">
-        <v>39604.89</v>
-      </c>
-      <c r="IJ20">
         <v>65255.55</v>
       </c>
     </row>
-    <row r="21" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -16133,10 +16004,10 @@
         <v>89.025300000000001</v>
       </c>
       <c r="D21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G21">
         <v>0.34080719999999998</v>
@@ -16145,16 +16016,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -16172,10 +16043,10 @@
         <v>-1</v>
       </c>
       <c r="S21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T21" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="V21">
         <v>373960.7</v>
@@ -16829,25 +16700,19 @@
         <v>6146.3689999999997</v>
       </c>
       <c r="IE21">
-        <v>37691.279999999999</v>
+        <v>58021.56</v>
       </c>
       <c r="IF21">
-        <v>6783.18</v>
+        <v>20300</v>
       </c>
       <c r="IG21">
-        <v>58021.56</v>
+        <v>46675.93</v>
       </c>
       <c r="IH21">
-        <v>20300</v>
-      </c>
-      <c r="II21">
-        <v>46675.93</v>
-      </c>
-      <c r="IJ21">
         <v>134085.6</v>
       </c>
     </row>
-    <row r="22" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>17</v>
       </c>
@@ -16858,10 +16723,10 @@
         <v>89.025899999999993</v>
       </c>
       <c r="D22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G22">
         <v>0.32735429999999999</v>
@@ -16870,16 +16735,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -16897,10 +16762,10 @@
         <v>-1</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="V22">
         <v>39951.06</v>
@@ -17554,25 +17419,19 @@
         <v>11492.81</v>
       </c>
       <c r="IE22">
-        <v>7829.2129999999997</v>
+        <v>7953.95</v>
       </c>
       <c r="IF22">
-        <v>4765.9989999999998</v>
+        <v>16369.68</v>
       </c>
       <c r="IG22">
-        <v>7953.95</v>
+        <v>27304.37</v>
       </c>
       <c r="IH22">
-        <v>16369.68</v>
-      </c>
-      <c r="II22">
-        <v>27304.37</v>
-      </c>
-      <c r="IJ22">
         <v>75922.3</v>
       </c>
     </row>
-    <row r="23" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -17583,10 +17442,10 @@
         <v>92.929599999999994</v>
       </c>
       <c r="D23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E23" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G23">
         <v>0.50672640000000002</v>
@@ -17595,16 +17454,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -17622,10 +17481,10 @@
         <v>-1</v>
       </c>
       <c r="S23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="V23">
         <v>176469</v>
@@ -18279,25 +18138,19 @@
         <v>15181.47</v>
       </c>
       <c r="IE23">
-        <v>8499.7780000000002</v>
+        <v>19694.98</v>
       </c>
       <c r="IF23">
-        <v>25539.55</v>
+        <v>34759.08</v>
       </c>
       <c r="IG23">
-        <v>19694.98</v>
+        <v>73688.13</v>
       </c>
       <c r="IH23">
-        <v>34759.08</v>
-      </c>
-      <c r="II23">
-        <v>73688.13</v>
-      </c>
-      <c r="IJ23">
         <v>71434.66</v>
       </c>
     </row>
-    <row r="24" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -18308,10 +18161,10 @@
         <v>93.047200000000004</v>
       </c>
       <c r="D24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G24">
         <v>0.51569509999999996</v>
@@ -18320,16 +18173,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -18347,10 +18200,10 @@
         <v>-1</v>
       </c>
       <c r="S24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="V24">
         <v>12546</v>
@@ -19004,25 +18857,19 @@
         <v>4836.9840000000004</v>
       </c>
       <c r="IE24">
-        <v>2134.14</v>
+        <v>2912.5239999999999</v>
       </c>
       <c r="IF24">
-        <v>2287.3139999999999</v>
+        <v>36375.81</v>
       </c>
       <c r="IG24">
-        <v>2912.5239999999999</v>
+        <v>12505.82</v>
       </c>
       <c r="IH24">
-        <v>36375.81</v>
-      </c>
-      <c r="II24">
-        <v>12505.82</v>
-      </c>
-      <c r="IJ24">
         <v>34847.58</v>
       </c>
     </row>
-    <row r="25" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -19033,10 +18880,10 @@
         <v>93.048599999999993</v>
       </c>
       <c r="D25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G25">
         <v>0.53363229999999995</v>
@@ -19045,16 +18892,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -19072,10 +18919,10 @@
         <v>-1</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="V25">
         <v>35734.04</v>
@@ -19729,30 +19576,24 @@
         <v>23948.63</v>
       </c>
       <c r="IE25">
-        <v>3287.54</v>
+        <v>10768.29</v>
       </c>
       <c r="IF25">
-        <v>4329.2719999999999</v>
+        <v>14393.55</v>
       </c>
       <c r="IG25">
-        <v>10768.29</v>
+        <v>5906.2420000000002</v>
       </c>
       <c r="IH25">
-        <v>14393.55</v>
-      </c>
-      <c r="II25">
-        <v>5906.2420000000002</v>
-      </c>
-      <c r="IJ25">
         <v>12623.03</v>
       </c>
     </row>
-    <row r="29" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:242" x14ac:dyDescent="0.3">
       <c r="AG29" s="1"/>
       <c r="AY29" s="1"/>
       <c r="CM29" s="1"/>
     </row>
-    <row r="57" spans="27:187" x14ac:dyDescent="0.25">
+    <row r="57" spans="27:187" x14ac:dyDescent="0.3">
       <c r="AA57" s="1"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
@@ -19760,32 +19601,32 @@
       <c r="DH57" s="1"/>
       <c r="GE57" s="1"/>
     </row>
-    <row r="64" spans="27:187" x14ac:dyDescent="0.25">
+    <row r="64" spans="27:187" x14ac:dyDescent="0.3">
       <c r="BL64" s="1"/>
     </row>
-    <row r="69" spans="27:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="27:39" x14ac:dyDescent="0.3">
       <c r="AA69" s="1"/>
       <c r="AC69" s="1"/>
       <c r="AM69" s="1"/>
     </row>
-    <row r="87" spans="27:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="27:29" x14ac:dyDescent="0.3">
       <c r="AC87" s="1"/>
     </row>
-    <row r="88" spans="27:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="27:29" x14ac:dyDescent="0.3">
       <c r="AC88" s="1"/>
     </row>
-    <row r="90" spans="27:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="27:29" x14ac:dyDescent="0.3">
       <c r="AA90" s="1"/>
     </row>
-    <row r="137" spans="27:64" x14ac:dyDescent="0.25">
+    <row r="137" spans="27:64" x14ac:dyDescent="0.3">
       <c r="AA137" s="1"/>
       <c r="AC137" s="1"/>
       <c r="BL137" s="1"/>
     </row>
-    <row r="165" spans="27:236" x14ac:dyDescent="0.25">
+    <row r="165" spans="27:236" x14ac:dyDescent="0.3">
       <c r="CM165" s="1"/>
     </row>
-    <row r="173" spans="27:236" x14ac:dyDescent="0.25">
+    <row r="173" spans="27:236" x14ac:dyDescent="0.3">
       <c r="AA173" s="1"/>
       <c r="AC173" s="1"/>
       <c r="AT173" s="1"/>
@@ -19795,14 +19636,14 @@
       <c r="GH173" s="1"/>
       <c r="IB173" s="1"/>
     </row>
-    <row r="174" spans="27:236" x14ac:dyDescent="0.25">
+    <row r="174" spans="27:236" x14ac:dyDescent="0.3">
       <c r="AA174" s="1"/>
       <c r="AT174" s="1"/>
       <c r="CB174" s="1"/>
       <c r="GB174" s="1"/>
       <c r="IB174" s="1"/>
     </row>
-    <row r="182" spans="22:239" x14ac:dyDescent="0.25">
+    <row r="182" spans="22:226" x14ac:dyDescent="0.3">
       <c r="V182" s="1"/>
       <c r="AI182" s="1"/>
       <c r="AQ182" s="1"/>
@@ -19823,9 +19664,8 @@
       <c r="GT182" s="1"/>
       <c r="HE182" s="1"/>
       <c r="HR182" s="1"/>
-      <c r="IE182" s="1"/>
     </row>
-    <row r="194" spans="27:239" x14ac:dyDescent="0.25">
+    <row r="194" spans="27:202" x14ac:dyDescent="0.3">
       <c r="BD194" s="1"/>
       <c r="BR194" s="1"/>
       <c r="BX194" s="1"/>
@@ -19833,19 +19673,18 @@
       <c r="CJ194" s="1"/>
       <c r="CU194" s="1"/>
       <c r="GT194" s="1"/>
-      <c r="IE194" s="1"/>
     </row>
-    <row r="202" spans="27:239" x14ac:dyDescent="0.25">
+    <row r="202" spans="27:202" x14ac:dyDescent="0.3">
       <c r="AC202" s="1"/>
       <c r="AT202" s="1"/>
     </row>
-    <row r="204" spans="27:239" x14ac:dyDescent="0.25">
+    <row r="204" spans="27:202" x14ac:dyDescent="0.3">
       <c r="AC204" s="1"/>
     </row>
-    <row r="205" spans="27:239" x14ac:dyDescent="0.25">
+    <row r="205" spans="27:202" x14ac:dyDescent="0.3">
       <c r="AA205" s="1"/>
     </row>
-    <row r="211" spans="22:223" x14ac:dyDescent="0.25">
+    <row r="211" spans="22:223" x14ac:dyDescent="0.3">
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
       <c r="AH211" s="1"/>
@@ -19888,7 +19727,7 @@
       <c r="CO211" s="1"/>
       <c r="CP211" s="1"/>
     </row>
-    <row r="212" spans="22:223" x14ac:dyDescent="0.25">
+    <row r="212" spans="22:223" x14ac:dyDescent="0.3">
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
       <c r="AH212" s="1"/>
@@ -19931,7 +19770,7 @@
       <c r="CO212" s="1"/>
       <c r="CP212" s="1"/>
     </row>
-    <row r="213" spans="22:223" x14ac:dyDescent="0.25">
+    <row r="213" spans="22:223" x14ac:dyDescent="0.3">
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
       <c r="Y213" s="1"/>
@@ -20028,7 +19867,7 @@
       <c r="HJ213" s="1"/>
       <c r="HO213" s="1"/>
     </row>
-    <row r="253" spans="22:187" x14ac:dyDescent="0.25">
+    <row r="253" spans="22:187" x14ac:dyDescent="0.3">
       <c r="V253" s="1"/>
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
@@ -20048,7 +19887,7 @@
       <c r="CB253" s="1"/>
       <c r="CI253" s="1"/>
     </row>
-    <row r="255" spans="22:187" x14ac:dyDescent="0.25">
+    <row r="255" spans="22:187" x14ac:dyDescent="0.3">
       <c r="V255" s="1"/>
       <c r="AA255" s="1"/>
       <c r="AC255" s="1"/>
@@ -20065,7 +19904,7 @@
       <c r="GB255" s="1"/>
       <c r="GE255" s="1"/>
     </row>
-    <row r="256" spans="22:187" x14ac:dyDescent="0.25">
+    <row r="256" spans="22:187" x14ac:dyDescent="0.3">
       <c r="V256" s="1"/>
       <c r="X256" s="1"/>
       <c r="AC256" s="1"/>
@@ -20076,7 +19915,7 @@
       <c r="CB256" s="1"/>
       <c r="CI256" s="1"/>
     </row>
-    <row r="260" spans="22:88" x14ac:dyDescent="0.25">
+    <row r="260" spans="22:88" x14ac:dyDescent="0.3">
       <c r="V260" s="1"/>
       <c r="AH260" s="1"/>
       <c r="AI260" s="1"/>
@@ -20090,17 +19929,17 @@
       <c r="CI260" s="1"/>
       <c r="CJ260" s="1"/>
     </row>
-    <row r="270" spans="22:88" x14ac:dyDescent="0.25">
+    <row r="270" spans="22:88" x14ac:dyDescent="0.3">
       <c r="AA270" s="1"/>
       <c r="AC270" s="1"/>
       <c r="BL270" s="1"/>
     </row>
-    <row r="276" spans="22:202" x14ac:dyDescent="0.25">
+    <row r="276" spans="22:202" x14ac:dyDescent="0.3">
       <c r="CA276" s="1"/>
       <c r="EO276" s="1"/>
       <c r="GT276" s="1"/>
     </row>
-    <row r="281" spans="22:202" x14ac:dyDescent="0.25">
+    <row r="281" spans="22:202" x14ac:dyDescent="0.3">
       <c r="V281" s="1"/>
       <c r="W281" s="1"/>
       <c r="X281" s="1"/>
@@ -20112,17 +19951,17 @@
       <c r="AF281" s="1"/>
       <c r="AH281" s="1"/>
     </row>
-    <row r="282" spans="22:202" x14ac:dyDescent="0.25">
+    <row r="282" spans="22:202" x14ac:dyDescent="0.3">
       <c r="W282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="22:202" x14ac:dyDescent="0.25">
+    <row r="283" spans="22:202" x14ac:dyDescent="0.3">
       <c r="Y283" s="1"/>
     </row>
-    <row r="337" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="337" spans="29:29" x14ac:dyDescent="0.3">
       <c r="AC337" s="1"/>
     </row>
-    <row r="358" spans="34:172" x14ac:dyDescent="0.25">
+    <row r="358" spans="34:172" x14ac:dyDescent="0.3">
       <c r="AH358" s="1"/>
       <c r="AQ358" s="1"/>
       <c r="AU358" s="1"/>
@@ -20134,14 +19973,14 @@
       <c r="FE358" s="1"/>
       <c r="FP358" s="1"/>
     </row>
-    <row r="434" spans="22:236" x14ac:dyDescent="0.25">
+    <row r="434" spans="22:236" x14ac:dyDescent="0.3">
       <c r="AA434" s="1"/>
       <c r="AC434" s="1"/>
       <c r="AD434" s="1"/>
       <c r="GO434" s="1"/>
       <c r="IB434" s="1"/>
     </row>
-    <row r="435" spans="22:236" x14ac:dyDescent="0.25">
+    <row r="435" spans="22:236" x14ac:dyDescent="0.3">
       <c r="V435" s="1"/>
       <c r="AI435" s="1"/>
       <c r="AS435" s="1"/>
@@ -20150,12 +19989,12 @@
       <c r="BS435" s="1"/>
       <c r="BZ435" s="1"/>
     </row>
-    <row r="481" spans="27:184" x14ac:dyDescent="0.25">
+    <row r="481" spans="27:184" x14ac:dyDescent="0.3">
       <c r="AJ481" s="1"/>
       <c r="BF481" s="1"/>
       <c r="BJ481" s="1"/>
     </row>
-    <row r="488" spans="27:184" x14ac:dyDescent="0.25">
+    <row r="488" spans="27:184" x14ac:dyDescent="0.3">
       <c r="AA488" s="1"/>
       <c r="AC488" s="1"/>
       <c r="AJ488" s="1"/>
@@ -20165,22 +20004,22 @@
       <c r="BL488" s="1"/>
       <c r="DL488" s="1"/>
     </row>
-    <row r="489" spans="27:184" x14ac:dyDescent="0.25">
+    <row r="489" spans="27:184" x14ac:dyDescent="0.3">
       <c r="AA489" s="1"/>
       <c r="AC489" s="1"/>
       <c r="BL489" s="1"/>
     </row>
-    <row r="490" spans="27:184" x14ac:dyDescent="0.25">
+    <row r="490" spans="27:184" x14ac:dyDescent="0.3">
       <c r="AA490" s="1"/>
       <c r="AC490" s="1"/>
       <c r="BL490" s="1"/>
       <c r="GB490" s="1"/>
     </row>
-    <row r="517" spans="27:64" x14ac:dyDescent="0.25">
+    <row r="517" spans="27:64" x14ac:dyDescent="0.3">
       <c r="AA517" s="1"/>
       <c r="BL517" s="1"/>
     </row>
-    <row r="554" spans="22:236" x14ac:dyDescent="0.25">
+    <row r="554" spans="22:236" x14ac:dyDescent="0.3">
       <c r="V554" s="1"/>
       <c r="W554" s="1"/>
       <c r="AA554" s="1"/>
@@ -20209,13 +20048,13 @@
       <c r="GM554" s="1"/>
       <c r="IB554" s="1"/>
     </row>
-    <row r="555" spans="22:236" x14ac:dyDescent="0.25">
+    <row r="555" spans="22:236" x14ac:dyDescent="0.3">
       <c r="AA555" s="1"/>
       <c r="AC555" s="1"/>
       <c r="BL555" s="1"/>
       <c r="GB555" s="1"/>
     </row>
-    <row r="556" spans="22:236" x14ac:dyDescent="0.25">
+    <row r="556" spans="22:236" x14ac:dyDescent="0.3">
       <c r="AA556" s="1"/>
       <c r="AC556" s="1"/>
       <c r="BL556" s="1"/>
@@ -20223,7 +20062,7 @@
       <c r="GB556" s="1"/>
       <c r="GE556" s="1"/>
     </row>
-    <row r="646" spans="25:94" x14ac:dyDescent="0.25">
+    <row r="646" spans="25:94" x14ac:dyDescent="0.3">
       <c r="Y646" s="1"/>
       <c r="AJ646" s="1"/>
       <c r="AO646" s="1"/>
@@ -20235,30 +20074,30 @@
       <c r="CG646" s="1"/>
       <c r="CP646" s="1"/>
     </row>
-    <row r="706" spans="112:112" x14ac:dyDescent="0.25">
+    <row r="706" spans="112:112" x14ac:dyDescent="0.3">
       <c r="DH706" s="1"/>
     </row>
-    <row r="727" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="727" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA727" s="1"/>
     </row>
-    <row r="728" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="728" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA728" s="1"/>
     </row>
-    <row r="766" spans="167:167" x14ac:dyDescent="0.25">
+    <row r="766" spans="167:167" x14ac:dyDescent="0.3">
       <c r="FK766" s="1"/>
     </row>
-    <row r="791" spans="27:131" x14ac:dyDescent="0.25">
+    <row r="791" spans="27:131" x14ac:dyDescent="0.3">
       <c r="AA791" s="1"/>
       <c r="BK791" s="1"/>
       <c r="EA791" s="1"/>
     </row>
-    <row r="793" spans="27:131" x14ac:dyDescent="0.25">
+    <row r="793" spans="27:131" x14ac:dyDescent="0.3">
       <c r="AA793" s="1"/>
       <c r="BG793" s="1"/>
       <c r="BK793" s="1"/>
       <c r="EA793" s="1"/>
     </row>
-    <row r="808" spans="45:218" x14ac:dyDescent="0.25">
+    <row r="808" spans="45:218" x14ac:dyDescent="0.3">
       <c r="AS808" s="1"/>
       <c r="AY808" s="1"/>
       <c r="BQ808" s="1"/>
@@ -20269,11 +20108,11 @@
       <c r="GD808" s="1"/>
       <c r="HJ808" s="1"/>
     </row>
-    <row r="838" spans="31:50" x14ac:dyDescent="0.25">
+    <row r="838" spans="31:50" x14ac:dyDescent="0.3">
       <c r="AE838" s="1"/>
       <c r="AX838" s="1"/>
     </row>
-    <row r="874" spans="27:184" x14ac:dyDescent="0.25">
+    <row r="874" spans="27:184" x14ac:dyDescent="0.3">
       <c r="AA874" s="1"/>
       <c r="AC874" s="1"/>
       <c r="AJ874" s="1"/>
@@ -20285,7 +20124,7 @@
       <c r="CB874" s="1"/>
       <c r="GB874" s="1"/>
     </row>
-    <row r="875" spans="27:184" x14ac:dyDescent="0.25">
+    <row r="875" spans="27:184" x14ac:dyDescent="0.3">
       <c r="AA875" s="1"/>
       <c r="AC875" s="1"/>
       <c r="AF875" s="1"/>
@@ -20297,31 +20136,31 @@
       <c r="CB875" s="1"/>
       <c r="GB875" s="1"/>
     </row>
-    <row r="891" spans="31:50" x14ac:dyDescent="0.25">
+    <row r="891" spans="31:50" x14ac:dyDescent="0.3">
       <c r="AE891" s="1"/>
       <c r="AX891" s="1"/>
     </row>
-    <row r="972" spans="31:50" x14ac:dyDescent="0.25">
+    <row r="972" spans="31:50" x14ac:dyDescent="0.3">
       <c r="AE972" s="1"/>
       <c r="AX972" s="1"/>
     </row>
-    <row r="1030" spans="27:64" x14ac:dyDescent="0.25">
+    <row r="1030" spans="27:64" x14ac:dyDescent="0.3">
       <c r="AA1030" s="1"/>
       <c r="BL1030" s="1"/>
     </row>
-    <row r="1031" spans="27:64" x14ac:dyDescent="0.25">
+    <row r="1031" spans="27:64" x14ac:dyDescent="0.3">
       <c r="AE1031" s="1"/>
       <c r="AX1031" s="1"/>
     </row>
-    <row r="1063" spans="31:50" x14ac:dyDescent="0.25">
+    <row r="1063" spans="31:50" x14ac:dyDescent="0.3">
       <c r="AE1063" s="1"/>
       <c r="AX1063" s="1"/>
     </row>
-    <row r="1092" spans="31:50" x14ac:dyDescent="0.25">
+    <row r="1092" spans="31:50" x14ac:dyDescent="0.3">
       <c r="AE1092" s="1"/>
       <c r="AX1092" s="1"/>
     </row>
-    <row r="1123" spans="27:184" x14ac:dyDescent="0.25">
+    <row r="1123" spans="27:184" x14ac:dyDescent="0.3">
       <c r="AA1123" s="1"/>
       <c r="AC1123" s="1"/>
       <c r="BL1123" s="1"/>
@@ -20333,9 +20172,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20471,26 +20313,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CC45652-4C4E-4298-A4C8-D63D228F542F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21E9E8F9-5528-473D-8DB3-772480B282CC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7746a6f8-0bb5-496b-bf25-a73b1813b983"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20514,9 +20345,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21E9E8F9-5528-473D-8DB3-772480B282CC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CC45652-4C4E-4298-A4C8-D63D228F542F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7746a6f8-0bb5-496b-bf25-a73b1813b983"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/HILIC_neg_sample.xlsx
+++ b/inst/extdata/HILIC_neg_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\amp\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\notame\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB21A455-EB90-4EC3-A3A4-688235467375}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A15998-9B6E-447F-A11A-ECCF100199D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="4272" windowWidth="20244" windowHeight="15984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5856" yWindow="2064" windowWidth="34884" windowHeight="20652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HILIC neg final" sheetId="1" r:id="rId1"/>
@@ -106,669 +106,6 @@
     <t>MS/MS spectrum</t>
   </si>
   <si>
-    <t>180305SR_Saliva_HILIC_neg_015</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_016</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_017</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_018</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_019</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_020</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_021</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_022</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_023</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_024</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_025</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_026</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_027</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_028</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_029</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_030</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_031</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_032</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_033</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_034</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_035</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_036</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_037</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_038</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_039</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_040</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_041</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_042</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_043</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_044</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_045</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_046</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_047</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_048</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_049</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_050</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_051</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_052</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_053</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_054</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_055</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_056</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_057</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_058</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_059</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_060</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_061</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_062</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_063</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_064</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_065</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_066</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_067</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_068</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_069</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_070</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_071</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_072</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_073</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_074</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_075</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_076</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_077</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_078</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_079</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_080</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_081</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_082</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_083</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_084</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_085</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_086</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_087</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_088</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_089</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_090</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_091</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_092</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_093</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_094</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_095</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_096</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_097</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_098</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_099</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_100</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_101</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_102</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_103</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_104</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_105</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_106</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_107</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_108</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_109</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_110</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_111</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_112</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_113</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_114</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_115</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_116</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_117</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_118</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_119</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_120</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_121</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_122</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_123</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_124</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_125</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_126</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_127</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_128</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_129</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_130</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_131</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_132</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_133</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_134</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_135</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_136</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_137</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_138</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_139</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_140</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_141</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_142</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_143</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_144</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_145</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_146</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_147</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_148</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_149</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_150</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_151</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_152</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_153</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_154</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_155</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_156</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_157</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_158</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_159</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_160</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_161</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_162</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_163</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_164</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_165</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_166</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_167</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_168</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_169</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_170</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_171</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_172</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_173</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_174</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_175</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_176</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_177</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_178</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_179</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_180</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_181</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_182</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_183</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_184</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_185</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_186</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_187</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_188</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_189</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_190</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_191</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_192</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_193</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_194</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_195</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_196</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_197</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_198</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_199</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_200</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_201</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_202</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_203</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_204</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_205</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_206</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_207</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_208</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_209</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_210</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_211</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_212</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_213</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_214</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_215</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_216</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_217</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_218</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_219</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_220</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_221</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_222</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_223</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_224</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_225</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_226</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_227</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_228</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_229</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_230</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_231</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_234</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_235</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_236</t>
-  </si>
-  <si>
-    <t>180305SR_Saliva_HILIC_neg_237</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -899,6 +236,669 @@
   </si>
   <si>
     <t>Injection_order</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_015</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_016</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_017</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_018</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_019</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_020</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_021</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_022</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_023</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_024</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_025</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_026</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_027</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_028</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_029</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_030</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_031</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_032</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_033</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_034</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_035</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_036</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_037</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_038</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_039</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_040</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_041</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_042</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_043</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_044</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_045</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_046</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_047</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_048</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_049</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_050</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_051</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_052</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_053</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_054</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_055</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_056</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_057</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_058</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_059</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_060</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_061</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_062</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_063</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_064</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_065</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_066</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_067</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_068</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_069</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_070</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_071</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_072</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_073</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_074</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_075</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_076</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_077</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_078</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_079</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_080</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_081</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_082</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_083</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_084</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_085</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_086</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_087</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_088</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_089</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_090</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_091</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_092</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_093</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_094</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_095</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_096</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_097</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_098</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_099</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_100</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_101</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_102</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_103</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_104</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_105</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_106</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_107</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_108</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_109</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_110</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_111</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_112</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_113</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_114</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_115</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_116</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_117</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_118</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_119</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_120</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_121</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_122</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_123</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_124</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_125</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_126</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_127</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_128</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_129</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_130</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_131</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_132</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_133</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_134</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_135</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_136</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_137</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_138</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_139</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_140</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_141</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_142</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_143</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_144</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_145</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_146</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_147</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_148</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_149</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_150</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_151</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_152</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_153</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_154</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_155</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_156</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_157</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_158</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_159</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_160</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_161</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_162</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_163</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_164</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_165</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_166</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_167</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_168</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_169</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_170</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_171</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_172</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_173</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_174</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_175</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_176</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_177</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_178</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_179</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_180</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_181</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_182</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_183</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_184</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_185</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_186</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_187</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_188</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_189</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_190</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_191</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_192</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_193</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_194</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_195</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_196</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_197</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_198</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_199</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_200</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_201</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_202</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_203</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_204</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_205</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_206</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_207</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_208</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_209</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_210</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_211</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_212</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_213</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_214</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_215</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_216</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_217</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_218</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_219</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_220</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_221</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_222</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_223</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_224</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_225</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_226</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_227</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_228</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_229</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_230</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_231</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_234</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_235</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_236</t>
+  </si>
+  <si>
+    <t>Example_project_HILIC_neg_237</t>
   </si>
 </sst>
 </file>
@@ -1742,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IH1123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HQ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="IE1" sqref="IE1:IF1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="3" spans="1:242" x14ac:dyDescent="0.3">
       <c r="U3" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -3817,667 +3817,667 @@
         <v>27</v>
       </c>
       <c r="V4" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AG4" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AH4" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="AK4" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="AL4" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="AM4" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AN4" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AO4" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="AP4" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="AQ4" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="AR4" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AS4" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="AT4" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="AU4" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="AV4" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="AW4" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="AX4" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="AY4" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="AZ4" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="BA4" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="BB4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="BC4" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="BD4" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="BE4" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="BF4" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="BG4" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="BH4" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="BI4" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="BJ4" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="BK4" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="BL4" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="BM4" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="BN4" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="BO4" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="BP4" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="BQ4" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="BR4" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="BS4" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="BT4" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="BU4" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="BV4" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="BW4" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="BX4" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="BY4" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="BZ4" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="CA4" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="CB4" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="CC4" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="CD4" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="CE4" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="CF4" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="CG4" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="CH4" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="CI4" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="CJ4" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="CK4" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="CL4" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="CM4" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="CN4" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="CO4" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="CP4" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="CQ4" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="CR4" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="CS4" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="CT4" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="CU4" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="CV4" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="CW4" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="CX4" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="CY4" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="CZ4" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="DA4" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="DB4" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="DC4" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="DD4" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="DE4" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="DF4" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="DG4" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="DH4" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="DI4" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="DJ4" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="DK4" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="DL4" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="DM4" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="DN4" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="DO4" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="DP4" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="DQ4" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="DR4" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="DS4" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="DT4" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="DU4" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="DV4" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="DW4" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="DX4" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="DY4" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="DZ4" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="EA4" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="EB4" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="EC4" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="ED4" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="EE4" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="EF4" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="EG4" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="EH4" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="EI4" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="EJ4" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="EK4" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="EL4" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="EM4" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="EN4" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="EO4" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="EP4" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="EQ4" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="ER4" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="ES4" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="ET4" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="EU4" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="EV4" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="EW4" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="EX4" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="EY4" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="EZ4" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="FA4" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="FB4" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="FC4" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="FD4" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="FE4" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="FF4" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="FG4" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="FH4" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="FI4" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="FJ4" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="FK4" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="FL4" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="FM4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="FN4" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="FO4" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="FP4" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="FQ4" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="FR4" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="FS4" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="FT4" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="FU4" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="FV4" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="FW4" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="FX4" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="FY4" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="FZ4" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="GA4" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="GB4" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="GC4" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="GD4" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="GE4" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="GF4" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="GG4" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="GH4" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="GI4" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="GJ4" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="GK4" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="GL4" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="GM4" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="GN4" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="GO4" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="GP4" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="GQ4" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="GR4" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="GS4" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="GT4" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="GU4" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="GV4" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="GW4" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="GX4" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="GY4" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="GZ4" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="HA4" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="HB4" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="HC4" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="HD4" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="HE4" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="HF4" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="HG4" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="HH4" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="HI4" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="HJ4" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="HK4" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="HL4" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="HM4" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="HN4" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="HO4" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="HP4" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="HQ4" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="HR4" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="HS4" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="HT4" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="HU4" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="HV4" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="HW4" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="HX4" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="HY4" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="HZ4" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="IA4" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="IB4" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="IC4" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="ID4" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="IE4" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="IF4" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="IG4" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="IH4" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:242" x14ac:dyDescent="0.3">
@@ -4491,10 +4491,10 @@
         <v>57.9758</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>0.61883410000000005</v>
@@ -4503,16 +4503,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -4530,10 +4530,10 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="V5">
         <v>440357.7</v>
@@ -5210,10 +5210,10 @@
         <v>61.989400000000003</v>
       </c>
       <c r="D6" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>0.41704029999999997</v>
@@ -5222,13 +5222,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -5246,10 +5246,10 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="T6" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="V6">
         <v>259414.2</v>
@@ -5926,10 +5926,10 @@
         <v>61.990600000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>0.93273539999999999</v>
@@ -5938,16 +5938,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -5965,10 +5965,10 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="V7">
         <v>720545.3</v>
@@ -6645,10 +6645,10 @@
         <v>68.995599999999996</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <v>0.31390129999999999</v>
@@ -6657,16 +6657,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -6684,10 +6684,10 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="V8">
         <v>445562.4</v>
@@ -7364,10 +7364,10 @@
         <v>73.030600000000007</v>
       </c>
       <c r="D9" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G9">
         <v>0.79372200000000004</v>
@@ -7376,16 +7376,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -7403,10 +7403,10 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="V9">
         <v>67617.22</v>
@@ -8083,13 +8083,13 @@
         <v>73.031499999999994</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>0.41255609999999998</v>
@@ -8098,16 +8098,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L10" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -8125,10 +8125,10 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="V10">
         <v>94534.7</v>
@@ -8805,10 +8805,10 @@
         <v>73.971900000000005</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>0.32286999999999999</v>
@@ -8817,16 +8817,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -8844,10 +8844,10 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="V11">
         <v>39081.03</v>
@@ -9524,10 +9524,10 @@
         <v>75.009100000000004</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>0.39910309999999999</v>
@@ -9536,13 +9536,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="L12" t="s">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -9560,10 +9560,10 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="T12" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="V12">
         <v>1470609</v>
@@ -10240,13 +10240,13 @@
         <v>78.9208</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>269</v>
+        <v>48</v>
       </c>
       <c r="G13">
         <v>0.79820630000000004</v>
@@ -10255,16 +10255,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -10282,10 +10282,10 @@
         <v>-1</v>
       </c>
       <c r="S13" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="T13" t="s">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c r="V13">
         <v>10355.25</v>
@@ -10962,13 +10962,13 @@
         <v>78.960400000000007</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>271</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>272</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>0.96860990000000002</v>
@@ -10977,16 +10977,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -11004,10 +11004,10 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="T14" t="s">
-        <v>273</v>
+        <v>52</v>
       </c>
       <c r="V14">
         <v>1177903</v>
@@ -11684,13 +11684,13 @@
         <v>80.918899999999994</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <v>0.88340810000000003</v>
@@ -11699,16 +11699,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -11726,10 +11726,10 @@
         <v>-1</v>
       </c>
       <c r="S15" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="T15" t="s">
-        <v>275</v>
+        <v>54</v>
       </c>
       <c r="V15">
         <v>12073.77</v>
@@ -12406,13 +12406,13 @@
         <v>84.010400000000004</v>
       </c>
       <c r="D16" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>276</v>
+        <v>55</v>
       </c>
       <c r="G16">
         <v>0.36322870000000002</v>
@@ -12421,16 +12421,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -12448,10 +12448,10 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s">
-        <v>277</v>
+        <v>56</v>
       </c>
       <c r="V16">
         <v>113964.9</v>
@@ -13128,10 +13128,10 @@
         <v>87.009900000000002</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>0.52017939999999996</v>
@@ -13140,16 +13140,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J17" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L17" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -13167,10 +13167,10 @@
         <v>-1</v>
       </c>
       <c r="S17" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s">
-        <v>278</v>
+        <v>57</v>
       </c>
       <c r="V17">
         <v>205290.1</v>
@@ -13847,10 +13847,10 @@
         <v>87.011399999999995</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>0.98206280000000001</v>
@@ -13859,16 +13859,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K18" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -13886,10 +13886,10 @@
         <v>-1</v>
       </c>
       <c r="S18" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="T18" t="s">
-        <v>279</v>
+        <v>58</v>
       </c>
       <c r="V18">
         <v>293070.09999999998</v>
@@ -14566,13 +14566,13 @@
         <v>88.041499999999999</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="G19">
         <v>0.59641250000000001</v>
@@ -14581,13 +14581,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="K19" t="s">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="L19" t="s">
-        <v>284</v>
+        <v>63</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -14605,10 +14605,10 @@
         <v>-1</v>
       </c>
       <c r="S19" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="T19" t="s">
-        <v>285</v>
+        <v>64</v>
       </c>
       <c r="V19">
         <v>280665.90000000002</v>
@@ -15285,10 +15285,10 @@
         <v>89.024299999999997</v>
       </c>
       <c r="D20" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G20">
         <v>0.98206280000000001</v>
@@ -15297,16 +15297,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J20" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K20" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L20" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -15324,10 +15324,10 @@
         <v>-1</v>
       </c>
       <c r="S20" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="V20">
         <v>49107.09</v>
@@ -16004,10 +16004,10 @@
         <v>89.025300000000001</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G21">
         <v>0.34080719999999998</v>
@@ -16016,16 +16016,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K21" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L21" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -16043,10 +16043,10 @@
         <v>-1</v>
       </c>
       <c r="S21" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="T21" t="s">
-        <v>287</v>
+        <v>66</v>
       </c>
       <c r="V21">
         <v>373960.7</v>
@@ -16723,10 +16723,10 @@
         <v>89.025899999999993</v>
       </c>
       <c r="D22" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>0.32735429999999999</v>
@@ -16735,16 +16735,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K22" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -16762,10 +16762,10 @@
         <v>-1</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="T22" t="s">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="V22">
         <v>39951.06</v>
@@ -17442,10 +17442,10 @@
         <v>92.929599999999994</v>
       </c>
       <c r="D23" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G23">
         <v>0.50672640000000002</v>
@@ -17454,16 +17454,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K23" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L23" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -17481,10 +17481,10 @@
         <v>-1</v>
       </c>
       <c r="S23" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="T23" t="s">
-        <v>289</v>
+        <v>68</v>
       </c>
       <c r="V23">
         <v>176469</v>
@@ -18161,10 +18161,10 @@
         <v>93.047200000000004</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>0.51569509999999996</v>
@@ -18173,16 +18173,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J24" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K24" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -18200,10 +18200,10 @@
         <v>-1</v>
       </c>
       <c r="S24" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="T24" t="s">
-        <v>290</v>
+        <v>69</v>
       </c>
       <c r="V24">
         <v>12546</v>
@@ -18880,10 +18880,10 @@
         <v>93.048599999999993</v>
       </c>
       <c r="D25" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G25">
         <v>0.53363229999999995</v>
@@ -18892,16 +18892,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K25" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -18919,10 +18919,10 @@
         <v>-1</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="T25" t="s">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="V25">
         <v>35734.04</v>
@@ -20172,15 +20172,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038235D0575450E4D9009B3EC36509618" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1563d8c17d8b26b5b4bc5d77143e8591">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7746a6f8-0bb5-496b-bf25-a73b1813b983" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a22e70d41a9fc691e115476be54fdb1a" ns2:_="">
     <xsd:import namespace="7746a6f8-0bb5-496b-bf25-a73b1813b983"/>
@@ -20312,6 +20303,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -20319,14 +20319,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21E9E8F9-5528-473D-8DB3-772480B282CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{452117C0-DD30-4EFA-96E6-FE286DA01C71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20340,6 +20332,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21E9E8F9-5528-473D-8DB3-772480B282CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
